--- a/_CLUSTER/groups_time_area/PCA_time/groups_counts_area5_Mz.xlsx
+++ b/_CLUSTER/groups_time_area/PCA_time/groups_counts_area5_Mz.xlsx
@@ -381,7 +381,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
